--- a/production.xlsx
+++ b/production.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/projects/autobot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6B48DC-C78C-6640-8C14-F930E2D3C9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AD6B2E-BCE7-9941-86E8-B9D46BC78A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16620" xr2:uid="{02360B96-BF18-064E-851C-079D67B4ED40}"/>
+    <workbookView xWindow="9840" yWindow="740" windowWidth="16480" windowHeight="16620" xr2:uid="{02360B96-BF18-064E-851C-079D67B4ED40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -484,6 +484,9 @@
       <c r="D5">
         <v>44</v>
       </c>
+      <c r="E5">
+        <v>333</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/production.xlsx
+++ b/production.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/projects/autobot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AD6B2E-BCE7-9941-86E8-B9D46BC78A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E8AA90-FF60-684E-8E81-C48F3602198E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="740" windowWidth="16480" windowHeight="16620" xr2:uid="{02360B96-BF18-064E-851C-079D67B4ED40}"/>
+    <workbookView xWindow="2060" yWindow="740" windowWidth="16480" windowHeight="16620" xr2:uid="{02360B96-BF18-064E-851C-079D67B4ED40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C5FE05-FB44-6547-AEAC-31F29D929CF7}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
